--- a/data/trans_dic/P16B05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,81%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>28,78; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>60,54; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>78,08; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>86,06; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,07%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>76,32; 97,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>96,39; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>84,32; 98,13</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>79,15; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>64,51; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>92,58; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>55,23; 94,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>92,17; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,5%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>83,14; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>87,45; 100,0</t>
         </is>
       </c>
     </row>
@@ -1187,42 +1187,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1240,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>44,46; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>44,46; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,27%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,97%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>73,48; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>58,67; 94,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>84,68; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>87,93; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>85,95; 98,51</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,72%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>80,27; 96,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>91,62; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>90,42; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>87,91; 98,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>93,43; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>93,44; 100,0</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>85,68; 97,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>95,52; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>89,51; 98,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>90,59; 97,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>97,34; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>95,78; 99,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>90,69; 96,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>97,84; 99,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>95,26; 98,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,67; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>85,15; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,15; 100,0</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,58; 100,0</t>
+          <t>90,26; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,17; 100,0</t>
+          <t>90,36; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,78; 100,0</t>
+          <t>28,38; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,67; 100,0</t>
+          <t>64,91; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,54; 100,0</t>
+          <t>60,37; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,24 +716,24 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,08; 100,0</t>
+          <t>77,77; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,15; 100,0</t>
+          <t>87,08; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,06; 100,0</t>
+          <t>85,84; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -820,7 +821,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,32; 97,31</t>
+          <t>76,86; 97,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,14 +836,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,32; 98,13</t>
+          <t>84,2; 98,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1030,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64,51; 100,0</t>
+          <t>67,5; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,26; 100,0</t>
+          <t>88,0; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,23; 94,24</t>
+          <t>53,09; 94,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,36; 100,0</t>
+          <t>89,83; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1150,7 +1151,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,14; 100,0</t>
+          <t>83,15; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,14 +1166,14 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,45; 100,0</t>
+          <t>87,24; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,46; 100,0</t>
+          <t>43,18; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1265,7 +1266,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,46; 100,0</t>
+          <t>43,18; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1282,7 +1283,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73,48; 100,0</t>
+          <t>68,6; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1355,12 +1356,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>58,67; 94,98</t>
+          <t>57,02; 94,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,68; 100,0</t>
+          <t>84,7; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1375,7 +1376,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,93; 100,0</t>
+          <t>86,97; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1385,7 +1386,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85,95; 98,51</t>
+          <t>86,15; 98,48</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1471,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>80,27; 96,86</t>
+          <t>81,18; 96,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>91,62; 100,0</t>
+          <t>91,59; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>90,42; 100,0</t>
+          <t>89,56; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,91; 98,13</t>
+          <t>86,48; 97,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,43; 100,0</t>
+          <t>94,26; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>93,44; 100,0</t>
+          <t>93,48; 100,0</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>85,68; 97,76</t>
+          <t>84,04; 97,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>95,52; 100,0</t>
+          <t>93,79; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>89,51; 98,21</t>
+          <t>90,04; 98,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>90,59; 97,75</t>
+          <t>90,48; 97,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,34; 100,0</t>
+          <t>97,35; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>95,78; 99,28</t>
+          <t>95,7; 99,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>90,69; 96,76</t>
+          <t>90,9; 96,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,75</t>
+          <t>97,71; 99,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>95,26; 98,66</t>
+          <t>95,12; 98,65</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos tranquilizantes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15391</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9650</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17854</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22670</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18576</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22276</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38061</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28225</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1739; 6128</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10655; 16415</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6387; 10580</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15973; 17854</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20711; 22670</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16619; 18576</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18651; 23981</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34034; 39085</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25027; 29155</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11911</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18576</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16075</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>33419</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44255</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32979</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45330</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62831</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49053</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10183; 11911</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16070; 18576</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14173; 16075</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31543; 33419</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>42142; 44255</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27725; 35099</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43446; 45330</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>60563; 62831</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43906; 51181</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12232</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9937</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8194</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19466</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4920</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20426</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29404</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2546; 3994</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10143; 12232</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8075; 9937</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>212; 926</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6494; 8194</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17705; 19466</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3416; 4920</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18386; 20426</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27535; 29404</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8715</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15762</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13496</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>38814</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>32794</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15336</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47528</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48556</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4531</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6689; 8715</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13897; 15762</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9842; 14581</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34981; 39749</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30839; 32794</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10147; 18016</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>43533; 48463</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46581; 48556</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8592</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9421</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12194</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>34478</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27754</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16810</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>43070</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>37175</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3205; 4617</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6809; 8592</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7812; 9421</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10425; 12194</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32543; 34478</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23871; 28708</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15039; 16810</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>41111; 43070</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33264; 38129</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7004</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8314</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15060</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14495</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22064</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22809</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5376; 7004</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6589; 8314</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3957; 9164</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13162; 15060</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12668; 14495</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3957; 9164</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20157; 22064</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20923; 22809</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15104</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20176</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>17435</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>30161</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>27515</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>49355</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>45265</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>47690</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>66790</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11038; 16090</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18161; 20176</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12386; 20625</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>26275; 31023</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>25500; 27515</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>47162; 49355</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>40975; 47113</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>45619; 47690</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>61232; 69993</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>33303</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>21209</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>25187</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>54616</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>57744</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>68053</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>87918</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>78952</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>93239</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>31434; 33303</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>19091; 21209</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>23342; 25187</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>48740; 58150</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>53774; 58713</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>62032; 69264</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>80720; 91400</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>75333; 79921</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>88289; 94450</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>75190</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>111894</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>111780</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>169851</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>248728</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>263471</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>245042</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>360623</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>375251</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>67712; 78646</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>105908; 112918</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>105338; 114931</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>162135; 174510</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>243981; 250632</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>257165; 266742</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>236145; 251452</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>355239; 362610</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>366902; 380503</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>